--- a/ig/clcore/1.8.5/StructureDefinition-RazonNOrealizarseInm.xlsx
+++ b/ig/clcore/1.8.5/StructureDefinition-RazonNOrealizarseInm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T17:16:23-03:00</t>
+    <t>2023-11-02T09:44:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
